--- a/EASE/EASE(D)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(D)-Repeated-Donohue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30D640-F760-4254-9474-106FFEBE1EB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="114_{3CD02163-98AE-4F6C-B529-870D87FAC4E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F13E3351-27B2-4F6C-B196-27E324FBDD99}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="795" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -40,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="137">
   <si>
     <t>Group</t>
   </si>
@@ -422,9 +424,6 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>Data from Donohue (2002)</t>
   </si>
   <si>
@@ -458,10 +457,10 @@
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
-    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
+    <t>Version: 2.20200104</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/EASE</t>
+    <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
 </sst>
 </file>
@@ -1420,18 +1419,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1457,6 +1444,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -8730,23 +8729,23 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="31"/>
-    <col min="9" max="10" width="4.5703125" style="31" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="31"/>
-    <col min="18" max="19" width="4.5703125" style="31" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="31"/>
+    <col min="1" max="1" width="4.578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="31"/>
+    <col min="9" max="10" width="4.578125" style="31" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="31"/>
+    <col min="18" max="19" width="4.578125" style="31" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="127"/>
     </row>
-    <row r="2" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="127"/>
       <c r="B2" s="192" t="s">
         <v>123</v>
@@ -8769,7 +8768,7 @@
       <c r="P2" s="193"/>
       <c r="Q2" s="193"/>
     </row>
-    <row r="3" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="127"/>
       <c r="B3" s="194" t="s">
         <v>65</v>
@@ -8783,7 +8782,7 @@
       <c r="I3" s="191"/>
       <c r="J3" s="191"/>
       <c r="K3" s="194" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L3" s="194"/>
       <c r="M3" s="194"/>
@@ -8792,7 +8791,7 @@
       <c r="P3" s="194"/>
       <c r="Q3" s="194"/>
     </row>
-    <row r="4" spans="1:17" s="132" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="132" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="131"/>
       <c r="B4" s="194" t="s">
         <v>35</v>
@@ -8806,7 +8805,7 @@
       <c r="I4" s="191"/>
       <c r="J4" s="191"/>
       <c r="K4" s="195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" s="194"/>
       <c r="M4" s="194"/>
@@ -8815,7 +8814,7 @@
       <c r="P4" s="194"/>
       <c r="Q4" s="194"/>
     </row>
-    <row r="5" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="127"/>
       <c r="I5" s="129"/>
       <c r="J5" s="129"/>
@@ -8827,7 +8826,7 @@
       <c r="P5" s="129"/>
       <c r="Q5" s="129"/>
     </row>
-    <row r="6" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="127"/>
       <c r="B6" s="8" t="s">
         <v>84</v>
@@ -8836,7 +8835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31" t="s">
         <v>99</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
         <v>100</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="31" t="s">
         <v>114</v>
       </c>
@@ -8860,12 +8859,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="8" t="s">
         <v>86</v>
       </c>
@@ -8873,10 +8872,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="31" t="s">
         <v>66</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31"/>
       <c r="B16" s="31" t="s">
         <v>103</v>
@@ -8893,7 +8892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
       <c r="B17" s="31" t="s">
         <v>97</v>
@@ -8902,7 +8901,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31"/>
       <c r="B18" s="31" t="s">
         <v>98</v>
@@ -8911,7 +8910,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
         <v>89</v>
@@ -8920,7 +8919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31"/>
       <c r="B22" s="28" t="s">
         <v>90</v>
@@ -8938,7 +8937,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31"/>
       <c r="B23" s="28" t="s">
         <v>91</v>
@@ -8956,7 +8955,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31"/>
       <c r="B24" s="28" t="s">
         <v>92</v>
@@ -8974,7 +8973,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
         <v>122</v>
@@ -8983,7 +8982,7 @@
         <v>110</v>
       </c>
       <c r="K25" s="188" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -8992,7 +8991,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31"/>
       <c r="B26" s="28" t="s">
         <v>93</v>
@@ -9010,7 +9009,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -9019,13 +9018,13 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="8" t="s">
         <v>121</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9034,7 +9033,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="L29"/>
@@ -9044,7 +9043,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="31"/>
       <c r="B30" s="30" t="s">
         <v>94</v>
@@ -9059,13 +9058,13 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31"/>
       <c r="B31" s="30" t="s">
         <v>95</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9074,7 +9073,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="31"/>
       <c r="B32" s="30" t="s">
         <v>96</v>
@@ -9089,7 +9088,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -9098,7 +9097,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" s="188"/>
     </row>
   </sheetData>
@@ -9133,24 +9132,24 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" style="5"/>
-    <col min="6" max="6" width="11.140625" style="44"/>
-    <col min="7" max="8" width="11.140625" style="5"/>
-    <col min="9" max="10" width="4.5703125" style="5" customWidth="1"/>
-    <col min="11" max="15" width="11.140625" style="21"/>
-    <col min="16" max="16" width="11.140625" style="93"/>
-    <col min="17" max="17" width="11.140625" style="5"/>
-    <col min="18" max="18" width="4.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="11.15625" style="5"/>
+    <col min="6" max="6" width="11.15625" style="44"/>
+    <col min="7" max="8" width="11.15625" style="5"/>
+    <col min="9" max="10" width="4.578125" style="5" customWidth="1"/>
+    <col min="11" max="15" width="11.15625" style="21"/>
+    <col min="16" max="16" width="11.15625" style="93"/>
+    <col min="17" max="17" width="11.15625" style="5"/>
+    <col min="18" max="18" width="4.578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.15625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="5"/>
       <c r="K1" s="44"/>
       <c r="L1" s="5"/>
@@ -9158,36 +9157,36 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="200" t="s">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="K2" s="200" t="s">
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="K2" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
       <c r="P2" s="125"/>
       <c r="Q2" s="126"/>
-      <c r="T2" s="200" t="s">
+      <c r="T2" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-    </row>
-    <row r="3" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197"/>
+    </row>
+    <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
       <c r="K3" s="44"/>
       <c r="L3" s="6"/>
@@ -9199,7 +9198,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B4" s="13" t="s">
         <v>30</v>
       </c>
@@ -9233,7 +9232,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="20">
         <v>1</v>
       </c>
@@ -9260,16 +9259,16 @@
       <c r="Y5" s="54"/>
       <c r="Z5" s="54"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="199" t="s">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
       <c r="K6" s="21">
         <v>2</v>
       </c>
@@ -9309,16 +9308,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="205" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="202" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
       <c r="K7" s="21">
         <v>3</v>
       </c>
@@ -9364,14 +9363,14 @@
         <v>1.3200877163837894</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
       <c r="K8" s="21">
         <v>4</v>
       </c>
@@ -9417,7 +9416,7 @@
         <v>1.0647460779577043</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -9470,16 +9469,16 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="204" t="s">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
       <c r="K10" s="21">
         <v>6</v>
       </c>
@@ -9524,16 +9523,16 @@
         <v>1.0321158645688646</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="201" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="198" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
       <c r="K11" s="21">
         <v>7</v>
       </c>
@@ -9578,14 +9577,14 @@
         <v>0.69975782735826042</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
       <c r="K12" s="21">
         <v>8</v>
       </c>
@@ -9611,14 +9610,14 @@
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
       <c r="K13" s="21">
         <v>9</v>
       </c>
@@ -9646,14 +9645,14 @@
       <c r="Y13" s="54"/>
       <c r="Z13" s="54"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
+    <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
       <c r="K14" s="21">
         <v>10</v>
       </c>
@@ -9679,7 +9678,7 @@
       <c r="Y14" s="54"/>
       <c r="Z14" s="54"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" s="21">
         <v>11</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" s="21">
         <v>12</v>
       </c>
@@ -9715,7 +9714,7 @@
         <v>25.666666666666668</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" s="21">
         <v>13</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>20.666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" s="21">
         <v>14</v>
       </c>
@@ -9751,7 +9750,7 @@
         <v>25.333333333333332</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B19" s="13" t="s">
         <v>38</v>
       </c>
@@ -9786,7 +9785,7 @@
       <c r="Y19" s="58"/>
       <c r="Z19" s="78"/>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -9819,17 +9818,17 @@
       <c r="Y20" s="54"/>
       <c r="Z20" s="54"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="199" t="s">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="196" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199" t="s">
+      <c r="C21" s="196"/>
+      <c r="D21" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
       <c r="H21" s="12" t="s">
         <v>26</v>
       </c>
@@ -9870,17 +9869,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="197" t="s">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="205" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
       <c r="H22" s="115">
         <v>1</v>
       </c>
@@ -9925,17 +9924,17 @@
         <v>0.53617260638639941</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="198" t="s">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="206" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
       <c r="H23" s="53">
         <v>2</v>
       </c>
@@ -9977,13 +9976,13 @@
         <v>0.74282018112380377</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="198"/>
-      <c r="C24" s="198"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="206"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
       <c r="H24" s="53"/>
       <c r="K24" s="21">
         <v>20</v>
@@ -10020,17 +10019,17 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="196" t="s">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="204" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="196"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
       <c r="H25" s="116">
         <v>4</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
@@ -10075,7 +10074,7 @@
       <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P27" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10091,7 +10090,7 @@
       <c r="Y27" s="54"/>
       <c r="Z27" s="54"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
       <c r="E28" s="7"/>
@@ -10109,7 +10108,7 @@
       <c r="Y28" s="54"/>
       <c r="Z28" s="54"/>
     </row>
-    <row r="29" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
       <c r="E29" s="46"/>
@@ -10128,7 +10127,7 @@
       <c r="Y29" s="59"/>
       <c r="Z29" s="28"/>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="E30" s="46"/>
@@ -10146,7 +10145,7 @@
       <c r="Y30" s="59"/>
       <c r="Z30" s="28"/>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="E31" s="46"/>
@@ -10178,7 +10177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
       <c r="E32" s="46"/>
@@ -10210,7 +10209,7 @@
       <c r="Y32" s="96"/>
       <c r="Z32" s="95"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
       <c r="E33" s="46"/>
@@ -10248,7 +10247,7 @@
         <v>0.35339999999999933</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="E34" s="46"/>
@@ -10277,7 +10276,7 @@
       <c r="Y34" s="102"/>
       <c r="Z34" s="103"/>
     </row>
-    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
       <c r="E35" s="46"/>
@@ -10306,7 +10305,7 @@
       <c r="Y35" s="104"/>
       <c r="Z35" s="106"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
       <c r="E36" s="46"/>
@@ -10324,7 +10323,7 @@
       <c r="Y36" s="60"/>
       <c r="Z36" s="60"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
       <c r="E37" s="46"/>
@@ -10334,7 +10333,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="46"/>
       <c r="C38" s="46"/>
       <c r="P38" s="93" t="str">
@@ -10342,7 +10341,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
       <c r="P39" s="93" t="str">
@@ -10350,7 +10349,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
       <c r="P40" s="93" t="str">
@@ -10358,7 +10357,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="P41" s="93" t="str">
@@ -10366,7 +10365,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
       <c r="P42" s="93" t="str">
@@ -10374,7 +10373,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
       <c r="P43" s="93" t="str">
@@ -10382,979 +10381,979 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P44" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P45" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P46" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P47" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P48" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P49" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P50" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P51" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P52" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P53" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P54" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P55" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P56" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P57" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P58" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P59" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P60" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P61" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P62" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P63" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P64" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P65" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P66" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P67" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P68" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P69" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P70" s="93" t="str">
         <f t="shared" ref="P70:P133" si="2">IFERROR(AVERAGE(L70:O70),"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P71" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P72" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P73" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P74" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P75" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P76" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P77" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P78" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P79" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P80" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P81" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P82" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P83" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P84" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P85" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P86" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P87" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P88" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P89" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P90" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P91" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P92" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P93" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P94" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P95" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P96" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P97" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P98" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P99" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P100" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P101" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P102" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P103" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P104" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P105" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P106" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P107" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P108" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P109" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P110" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P111" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P112" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P113" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P114" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P115" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P116" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P117" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P118" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P119" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P120" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P121" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P122" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P123" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P124" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P125" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P126" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P127" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P128" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P129" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P130" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P131" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P132" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P133" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P134" s="93" t="str">
         <f t="shared" ref="P134:P197" si="3">IFERROR(AVERAGE(L134:O134),"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P135" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P136" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P137" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P138" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P139" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P140" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P141" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P142" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P143" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P144" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P145" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P146" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P147" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P148" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P149" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P150" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P151" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P152" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P153" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P154" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P155" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P156" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P157" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P158" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P159" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P160" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P161" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P162" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P163" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P164" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P165" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P166" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P167" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P168" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P169" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P170" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P171" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P172" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P173" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P174" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P175" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P176" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P177" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P178" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P179" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P180" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P181" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P182" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P183" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P184" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P185" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P186" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P187" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P188" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P189" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P190" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P191" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P192" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P193" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P194" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P195" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P196" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P197" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P198" s="93" t="str">
         <f t="shared" ref="P198:P206" si="4">IFERROR(AVERAGE(L198:O198),"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P199" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P200" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P201" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P202" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P203" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P204" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P205" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P206" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11364,6 +11363,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -11373,14 +11380,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11399,26 +11398,26 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="35" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="34"/>
-    <col min="9" max="9" width="4.5703125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="35" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="34"/>
-    <col min="18" max="18" width="4.5703125" style="35" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="35" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="34"/>
+    <col min="9" max="9" width="4.578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="35" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="34"/>
+    <col min="18" max="18" width="4.578125" style="35" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="34" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="34"/>
+    <col min="27" max="27" width="4.578125" style="34" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5"/>
       <c r="J1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="207" t="s">
         <v>39</v>
@@ -11451,7 +11450,7 @@
       <c r="Y2" s="207"/>
       <c r="Z2" s="207"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -11470,7 +11469,7 @@
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="34"/>
       <c r="B4" s="8" t="s">
         <v>111</v>
@@ -11501,7 +11500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -11521,7 +11520,7 @@
       <c r="Q5" s="31"/>
       <c r="S5" s="54"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="133" t="s">
         <v>64</v>
@@ -11564,7 +11563,7 @@
       <c r="Q6" s="208"/>
       <c r="S6" s="54"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="22" t="str">
         <f>Data!T7</f>
@@ -11624,7 +11623,7 @@
         <v>0.32283569987874261</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="24" t="str">
         <f>Data!T8</f>
@@ -11684,7 +11683,7 @@
         <v>1.2474392242608683</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="24" t="str">
         <f>Data!T9</f>
@@ -11744,7 +11743,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="24" t="str">
         <f>Data!T10</f>
@@ -11804,7 +11803,7 @@
         <v>1.2252177127215651</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11823,7 +11822,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="R12" s="35"/>
       <c r="T12" s="109"/>
@@ -11834,7 +11833,7 @@
       <c r="Y12" s="35"/>
       <c r="Z12" s="35"/>
     </row>
-    <row r="13" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
       <c r="R13" s="35"/>
       <c r="T13" s="109"/>
@@ -11845,7 +11844,7 @@
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="34"/>
       <c r="B14" s="8" t="s">
         <v>113</v>
@@ -11877,7 +11876,7 @@
       <c r="Y14" s="54"/>
       <c r="Z14" s="54"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -11904,7 +11903,7 @@
       <c r="Y15" s="54"/>
       <c r="Z15" s="54"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="29"/>
       <c r="B16" s="121" t="s">
         <v>77</v>
@@ -11953,7 +11952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A17" s="29"/>
       <c r="B17" s="47" t="s">
         <v>0</v>
@@ -12021,7 +12020,7 @@
         <v>1.4437651409851782</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="47">
         <v>1.1000000000000001</v>
@@ -12095,7 +12094,7 @@
         <v>5.5787178064938132</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29"/>
       <c r="B19" s="47">
         <v>1.1000000000000001</v>
@@ -12169,7 +12168,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="29"/>
       <c r="B20" s="47">
         <v>1.1000000000000001</v>
@@ -12243,7 +12242,7 @@
         <v>5.4793401857644568</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="29"/>
       <c r="B21" s="47">
         <v>2.1</v>
@@ -12296,7 +12295,7 @@
       <c r="Y21" s="111"/>
       <c r="Z21" s="111"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="29"/>
       <c r="B22" s="47">
         <v>2.1</v>
@@ -12363,7 +12362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="47">
         <v>2.1</v>
@@ -12437,7 +12436,7 @@
         <v>1.443716014677193</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="47">
         <v>3.1</v>
@@ -12511,7 +12510,7 @@
         <v>5.5787178064938132</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="47">
         <v>3.1</v>
@@ -12585,7 +12584,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="29"/>
       <c r="B26" s="47">
         <v>3.1</v>
@@ -12659,7 +12658,7 @@
         <v>5.4793401857644568</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="29"/>
       <c r="B27" s="47">
         <v>4.0999999999999996</v>
@@ -12712,7 +12711,7 @@
       <c r="Y27" s="40"/>
       <c r="Z27" s="40"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="48">
         <v>4.0999999999999996</v>
@@ -12773,7 +12772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="48">
         <v>4.0999999999999996</v>
@@ -12839,7 +12838,7 @@
         <v>1.4437651409851782</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -12879,7 +12878,7 @@
         <v>5.5688422690532819</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -12919,7 +12918,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="29"/>
       <c r="B32" s="43"/>
       <c r="C32" s="33"/>
@@ -12958,7 +12957,7 @@
         <v>5.4700983624843911</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A33" s="4"/>
       <c r="B33" s="43"/>
       <c r="C33" s="33"/>
@@ -12983,7 +12982,7 @@
       <c r="Y33" s="40"/>
       <c r="Z33" s="40"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="119"/>
       <c r="C34" s="30"/>
@@ -13004,7 +13003,7 @@
       <c r="Y34" s="54"/>
       <c r="Z34" s="54"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="119"/>
       <c r="C35" s="30"/>
@@ -13025,12 +13024,12 @@
       <c r="Y35" s="54"/>
       <c r="Z35" s="54"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="S36" s="54"/>
       <c r="Y36" s="54"/>
       <c r="Z36" s="54"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="61" t="s">
         <v>112</v>
       </c>
@@ -13052,7 +13051,7 @@
       <c r="Y37" s="54"/>
       <c r="Z37" s="54"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
@@ -13070,7 +13069,7 @@
       <c r="Y38" s="54"/>
       <c r="Z38" s="54"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="135" t="s">
         <v>64</v>
       </c>
@@ -13106,7 +13105,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="22" t="str">
         <f>B7</f>
         <v>Pretest</v>
@@ -13149,7 +13148,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="24" t="str">
         <f>B8</f>
         <v>Posttest</v>
@@ -13192,7 +13191,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="24" t="str">
         <f>B9</f>
         <v/>
@@ -13231,7 +13230,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="141" t="str">
         <f>B10</f>
         <v>Followup</v>
@@ -13274,7 +13273,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="111"/>
       <c r="C44" s="2"/>
       <c r="D44" s="111"/>
@@ -13315,25 +13314,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showRuler="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="54" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="54"/>
-    <col min="9" max="10" width="4.5703125" style="54" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="54"/>
-    <col min="18" max="18" width="4.7109375" style="54" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="54" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="54" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="54"/>
+    <col min="9" max="10" width="4.578125" style="54" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="54"/>
+    <col min="18" max="18" width="4.68359375" style="54" customWidth="1"/>
+    <col min="19" max="19" width="4.68359375" style="54" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="54" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="54" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="54"/>
+    <col min="27" max="27" width="4.578125" style="54" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="207" t="s">
         <v>104</v>
       </c>
@@ -13353,7 +13352,7 @@
       <c r="P2" s="207"/>
       <c r="Q2" s="207"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="61" t="s">
         <v>111</v>
       </c>
@@ -13386,7 +13385,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -13404,7 +13403,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="145" t="s">
         <v>64</v>
       </c>
@@ -13454,7 +13453,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="115">
         <v>2</v>
       </c>
@@ -13520,7 +13519,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="189">
         <v>1</v>
       </c>
@@ -13586,7 +13585,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="113"/>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
@@ -13611,7 +13610,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="159" t="s">
         <v>116</v>
       </c>
@@ -13659,7 +13658,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="147" t="s">
         <v>105</v>
       </c>
@@ -13725,7 +13724,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -13750,7 +13749,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R13" s="167"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
@@ -13761,7 +13760,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="61" t="s">
         <v>113</v>
       </c>
@@ -13791,7 +13790,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -13809,7 +13808,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="144" t="s">
         <v>77</v>
       </c>
@@ -13862,7 +13861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="43" t="s">
         <v>0</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>5.5787178064938132</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -14012,7 +14011,7 @@
         <v>1.4437651409851782</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -14092,7 +14091,7 @@
         <v>-1.2230041554620077</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -14151,7 +14150,7 @@
       <c r="Y20" s="180"/>
       <c r="Z20" s="180"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="43">
         <v>2.1</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="43">
         <v>2.1</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>5.5787178064938132</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="43">
         <v>2.1</v>
       </c>
@@ -14381,7 +14380,7 @@
         <v>1.443716014677193</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="43">
         <v>2.75</v>
       </c>
@@ -14458,7 +14457,7 @@
         <v>-1.233997160559781</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="43">
         <v>2.75</v>
       </c>
@@ -14514,7 +14513,7 @@
       <c r="Y25" s="182"/>
       <c r="Z25" s="182"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="43">
         <v>2.75</v>
       </c>
@@ -14580,7 +14579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="119"/>
       <c r="C27" s="143"/>
       <c r="D27" s="143"/>
@@ -14635,7 +14634,7 @@
         <v>5.5688422690532819</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="119"/>
       <c r="C28" s="119"/>
       <c r="D28" s="143"/>
@@ -14693,7 +14692,7 @@
         <v>1.4437651409851782</v>
       </c>
     </row>
-    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="119"/>
       <c r="C29" s="119"/>
       <c r="D29" s="143"/>
@@ -14732,7 +14731,7 @@
         <v>-1.2230041554620077</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="153" t="s">
         <v>107</v>
       </c>
@@ -14764,7 +14763,7 @@
       <c r="Y30" s="182"/>
       <c r="Z30" s="182"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -14821,7 +14820,7 @@
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="43">
         <v>3.15</v>
       </c>
@@ -14876,7 +14875,7 @@
       </c>
       <c r="S32" s="42"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="43"/>
       <c r="C33" s="143"/>
       <c r="D33" s="43"/>
@@ -14893,7 +14892,7 @@
       <c r="Q33" s="119"/>
       <c r="S33" s="42"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="43"/>
       <c r="C34" s="143"/>
       <c r="D34" s="43"/>
@@ -14926,7 +14925,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="43"/>
       <c r="C35" s="143"/>
       <c r="D35" s="43"/>
@@ -14959,7 +14958,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="43"/>
       <c r="C36" s="143"/>
       <c r="D36" s="43"/>
@@ -14983,7 +14982,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="61" t="s">
         <v>112</v>
       </c>
@@ -15005,7 +15004,7 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K38" s="184"/>
       <c r="L38" s="184"/>
       <c r="M38" s="184"/>
@@ -15023,7 +15022,7 @@
       <c r="Y38" s="167"/>
       <c r="Z38" s="167"/>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="145" t="s">
         <v>64</v>
       </c>
@@ -15067,7 +15066,7 @@
       <c r="Y39" s="167"/>
       <c r="Z39" s="167"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="73">
         <f>IF(B7="","",B7)</f>
         <v>2</v>
@@ -15117,7 +15116,7 @@
       <c r="Y40" s="167"/>
       <c r="Z40" s="167"/>
     </row>
-    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="146">
         <f>IF(B8="","",B8)</f>
         <v>1</v>
@@ -15167,7 +15166,7 @@
       <c r="Y41" s="167"/>
       <c r="Z41" s="167"/>
     </row>
-    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
@@ -15192,7 +15191,7 @@
       <c r="Y42" s="167"/>
       <c r="Z42" s="167"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="160" t="s">
         <v>116</v>
       </c>
@@ -15236,7 +15235,7 @@
       <c r="Y43" s="167"/>
       <c r="Z43" s="167"/>
     </row>
-    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="147" t="s">
         <v>105</v>
       </c>
@@ -15284,7 +15283,7 @@
       <c r="Y44" s="167"/>
       <c r="Z44" s="167"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -15310,7 +15309,7 @@
       <c r="Z45" s="167"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G6:H6"/>
@@ -15338,21 +15337,21 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="31" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="31"/>
-    <col min="9" max="9" width="4.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="34" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="34"/>
-    <col min="18" max="18" width="4.5703125" style="34" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="31" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="31"/>
+    <col min="9" max="9" width="4.578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="34" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="34"/>
+    <col min="18" max="18" width="4.578125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="34" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="34"/>
+    <col min="27" max="27" width="4.578125" style="34" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="123"/>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -15363,7 +15362,7 @@
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
     </row>
-    <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="207" t="s">
         <v>43</v>
@@ -15396,7 +15395,7 @@
       <c r="Y2" s="207"/>
       <c r="Z2" s="207"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -15406,7 +15405,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="34"/>
       <c r="B4" s="9" t="s">
         <v>111</v>
@@ -15431,7 +15430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -15442,7 +15441,7 @@
       <c r="Q5" s="31"/>
       <c r="S5" s="54"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="64" t="s">
         <v>64</v>
       </c>
@@ -15486,7 +15485,7 @@
       <c r="Q6" s="208"/>
       <c r="S6" s="54"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="22" t="str">
         <f>IF(D7="","","1 vs. 2")</f>
         <v>1 vs. 2</v>
@@ -15545,7 +15544,7 @@
         <v>-0.27347204283777699</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="24" t="str">
         <f>IF(D8="","","1 vs. 3")</f>
         <v/>
@@ -15604,7 +15603,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="24" t="str">
         <f>IF(D9="","","2 vs. 3")</f>
         <v/>
@@ -15663,7 +15662,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="24" t="str">
         <f>IF(D10="","","1 vs. 4")</f>
         <v>1 vs. 4</v>
@@ -15722,7 +15721,7 @@
         <v>-0.27535880549057712</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="24" t="str">
         <f>IF(D11="","","2 vs. 4")</f>
         <v>2 vs. 4</v>
@@ -15781,7 +15780,7 @@
         <v>0.49731369048591151</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="26" t="str">
         <f>IF(D12="","","3 vs. 4")</f>
         <v/>
@@ -15840,7 +15839,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -15857,7 +15856,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="34"/>
       <c r="B14" s="9" t="s">
         <v>113</v>
@@ -15881,7 +15880,7 @@
       <c r="Y14" s="54"/>
       <c r="Z14" s="54"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -15899,7 +15898,7 @@
       <c r="Y15" s="54"/>
       <c r="Z15" s="54"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="120" t="s">
         <v>77</v>
       </c>
@@ -15946,7 +15945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="50" t="s">
         <v>0</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>-1.2230041554620077</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="50">
         <v>1.1000000000000001</v>
       </c>
@@ -16084,7 +16083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="50">
         <v>1.1000000000000001</v>
       </c>
@@ -16156,7 +16155,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" s="50">
         <v>1.1000000000000001</v>
       </c>
@@ -16228,7 +16227,7 @@
         <v>-1.2314420145601455</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="50">
         <v>2.1</v>
       </c>
@@ -16300,7 +16299,7 @@
         <v>2.2240544361355772</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="50">
         <v>2.1</v>
       </c>
@@ -16372,7 +16371,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="50">
         <v>2.1</v>
       </c>
@@ -16423,7 +16422,7 @@
       <c r="Y23" s="113"/>
       <c r="Z23" s="113"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="50">
         <v>3.1</v>
       </c>
@@ -16488,7 +16487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="50">
         <v>3.1</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>-1.233997160559781</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="50">
         <v>3.1</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -16776,7 +16775,7 @@
         <v>-1.2425149198804206</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -16848,7 +16847,7 @@
         <v>42.786404130078154</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="50">
         <v>5.0999999999999996</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="50">
         <v>5.0999999999999996</v>
       </c>
@@ -16971,7 +16970,7 @@
       <c r="Y31" s="54"/>
       <c r="Z31" s="54"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="50">
         <v>5.0999999999999996</v>
       </c>
@@ -17029,7 +17028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B33" s="50">
         <v>6.1</v>
       </c>
@@ -17093,7 +17092,7 @@
         <v>-1.2230041554620077</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="50">
         <v>6.1</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="50">
         <v>6.1</v>
       </c>
@@ -17219,7 +17218,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -17249,7 +17248,7 @@
         <v>-1.2314420145601455</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="61" t="s">
         <v>112</v>
       </c>
@@ -17291,7 +17290,7 @@
         <v>2.2240544361355772</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
@@ -17329,7 +17328,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="107" t="s">
         <v>64</v>
       </c>
@@ -17370,7 +17369,7 @@
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="22" t="str">
         <f t="shared" ref="B40:B45" si="26">B7</f>
         <v>1 vs. 2</v>
@@ -17412,7 +17411,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -17450,7 +17449,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -17488,7 +17487,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="24" t="str">
         <f t="shared" si="26"/>
         <v>1 vs. 4</v>
@@ -17530,7 +17529,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="24" t="str">
         <f t="shared" si="26"/>
         <v>2 vs. 4</v>
@@ -17572,7 +17571,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="26" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -17610,7 +17609,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="40"/>
       <c r="C46" s="2"/>
       <c r="D46" s="40"/>

--- a/EASE/EASE(D)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(D)-Repeated-Donohue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="114_{3CD02163-98AE-4F6C-B529-870D87FAC4E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F13E3351-27B2-4F6C-B196-27E324FBDD99}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="114_{0FAFF3D2-FEC5-44D8-8244-AE90699BA8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D39D68E0-B358-4BBA-8F07-32821C47DB88}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3392,7 +3392,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3416,7 +3418,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3440,7 +3444,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3464,7 +3470,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3477,6 +3485,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{2FC15EA1-C14D-4A2C-97C4-D6EAA6C50432}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3488,7 +3501,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3501,6 +3518,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{96FF1DF2-6B2C-4C9B-946F-110B3B1E8743}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3512,7 +3534,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3525,6 +3551,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{1A4AC53F-B68D-423F-9B27-6F7747C2FCB8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3536,7 +3567,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3549,6 +3584,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{CBC159C8-B50D-44DE-98D1-09E2D1863648}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3560,7 +3600,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3584,7 +3628,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3608,7 +3654,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3632,7 +3680,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3745,6 +3795,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$H$18:$H$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-5.000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-10.000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4197,6 +4288,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{E5A3C2DD-A37F-4DCA-8656-A9C2EF8F8926}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4209,7 +4305,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4227,6 +4327,13 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
+                    <a:fld id="{9AEFBBEF-A00A-493B-89B3-15E8CF0A0687}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4246,7 +4353,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4259,6 +4370,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{93718634-523D-43DB-BE68-39CE1E4A2900}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4271,7 +4387,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4337,6 +4457,23 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$D$24:$D$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-1.745</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-4.300</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-6.855</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4606,7 +4743,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4630,7 +4769,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4654,7 +4795,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4667,6 +4810,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{4D074E03-77C9-4A63-96C6-F4D607A95FE1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4678,7 +4826,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4691,6 +4843,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{55DCF48D-D778-41CA-9EA3-CD30CA5633F7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4702,7 +4859,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4715,6 +4876,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{86A7755D-491D-4544-9C4C-3B1749F2D1D5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4726,7 +4892,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4739,6 +4909,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{08FFC0E3-278F-4202-BE33-119ECCB9CE6A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4750,7 +4925,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4763,6 +4942,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{40C19E4E-6378-408A-9F97-261BB7B00150}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4774,7 +4958,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4787,6 +4975,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{239474D8-1E07-4079-AF0D-6E7BBCF69C60}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4798,7 +4991,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4822,7 +5019,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4846,7 +5045,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4959,6 +5160,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.500</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.500</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-1.500</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5414,6 +5656,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{951F8418-0C79-48BE-A7D7-C3DF3E688FBF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5426,7 +5673,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5444,6 +5695,13 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
+                    <a:fld id="{5A39CB1D-C072-412E-A594-9A0F66AF6E7E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5463,7 +5721,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5476,6 +5738,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{7117B816-44DE-4C16-B7A0-E2E278A2F661}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5488,7 +5755,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5554,6 +5825,23 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$M$24:$M$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-0.273</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-0.770</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-1.281</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -8176,15 +8464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>137158</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>173353</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55243</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8214,15 +8502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>179067</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>26670</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>24762</xdr:rowOff>
+      <xdr:rowOff>40002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13314,7 +13602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/EASE/EASE(D)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(D)-Repeated-Donohue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="114_{0FAFF3D2-FEC5-44D8-8244-AE90699BA8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D39D68E0-B358-4BBA-8F07-32821C47DB88}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C6C255A-1D2D-462B-AA39-96DC03E2DA1D}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,9 +412,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/psych/cw/</t>
-  </si>
-  <si>
     <t>Using this Module</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1419,6 +1419,18 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1444,18 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3393,7 +3393,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3419,7 +3419,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3445,7 +3445,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3471,7 +3471,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3485,7 +3485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FC15EA1-C14D-4A2C-97C4-D6EAA6C50432}" type="CELLRANGE">
+                    <a:fld id="{286B2EEE-B8B0-482C-BD4C-9DC38A8C63E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3518,7 +3518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96FF1DF2-6B2C-4C9B-946F-110B3B1E8743}" type="CELLRANGE">
+                    <a:fld id="{4DC48257-BBBD-4169-B890-6A34AC154088}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3551,7 +3551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A4AC53F-B68D-423F-9B27-6F7747C2FCB8}" type="CELLRANGE">
+                    <a:fld id="{DC1CC311-19E4-4A97-86BE-22FA1DD9A4C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3584,7 +3584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBC159C8-B50D-44DE-98D1-09E2D1863648}" type="CELLRANGE">
+                    <a:fld id="{837C7A44-D6E4-4F36-8904-C7A2594D4ADA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3629,7 +3629,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3655,7 +3655,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3681,7 +3681,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -4288,7 +4288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5A3C2DD-A37F-4DCA-8656-A9C2EF8F8926}" type="CELLRANGE">
+                    <a:fld id="{EE18328C-82BE-4905-A15B-EF6981A58FCE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4327,7 +4327,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{9AEFBBEF-A00A-493B-89B3-15E8CF0A0687}" type="CELLRANGE">
+                    <a:fld id="{0F8A8330-3E9B-4A08-B645-4656CE333BCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4370,7 +4370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93718634-523D-43DB-BE68-39CE1E4A2900}" type="CELLRANGE">
+                    <a:fld id="{18CDB026-5D77-404E-8364-CA256E3ADF85}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4744,7 +4744,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4770,7 +4770,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4796,7 +4796,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4810,7 +4810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D074E03-77C9-4A63-96C6-F4D607A95FE1}" type="CELLRANGE">
+                    <a:fld id="{EC3A80DB-0C2B-46EF-B4E0-AE822C0FFC44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4843,7 +4843,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55DCF48D-D778-41CA-9EA3-CD30CA5633F7}" type="CELLRANGE">
+                    <a:fld id="{E56D64D1-55F7-4F0D-9FF6-42D239282BD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4876,7 +4876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86A7755D-491D-4544-9C4C-3B1749F2D1D5}" type="CELLRANGE">
+                    <a:fld id="{15F80B69-244C-408B-9643-2C4ED82F1801}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4909,7 +4909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08FFC0E3-278F-4202-BE33-119ECCB9CE6A}" type="CELLRANGE">
+                    <a:fld id="{A1AAC4D3-C9E3-49F2-8034-321940C5943C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4942,7 +4942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40C19E4E-6378-408A-9F97-261BB7B00150}" type="CELLRANGE">
+                    <a:fld id="{8912EE26-A04B-4550-92CC-48B3F3D983C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4975,7 +4975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{239474D8-1E07-4079-AF0D-6E7BBCF69C60}" type="CELLRANGE">
+                    <a:fld id="{B7988384-4376-4253-9834-347B90D690AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5020,7 +5020,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -5046,7 +5046,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -5656,7 +5656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{951F8418-0C79-48BE-A7D7-C3DF3E688FBF}" type="CELLRANGE">
+                    <a:fld id="{51C15A17-EE07-4147-96C2-C8B649AFEC93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5695,7 +5695,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{5A39CB1D-C072-412E-A594-9A0F66AF6E7E}" type="CELLRANGE">
+                    <a:fld id="{8F7DA5CA-2853-4056-96D9-76714863D3D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5738,7 +5738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7117B816-44DE-4C16-B7A0-E2E278A2F661}" type="CELLRANGE">
+                    <a:fld id="{2E3D6BCE-6B97-441C-8167-8C373C52B300}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9017,7 +9017,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9036,7 +9036,7 @@
     <row r="2" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="127"/>
       <c r="B2" s="192" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="192"/>
       <c r="D2" s="192"/>
@@ -9070,7 +9070,7 @@
       <c r="I3" s="191"/>
       <c r="J3" s="191"/>
       <c r="K3" s="194" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="194"/>
       <c r="M3" s="194"/>
@@ -9093,7 +9093,7 @@
       <c r="I4" s="191"/>
       <c r="J4" s="191"/>
       <c r="K4" s="195" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="194"/>
       <c r="M4" s="194"/>
@@ -9264,13 +9264,13 @@
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>110</v>
       </c>
       <c r="K25" s="188" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9288,7 +9288,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="188" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9309,10 +9309,10 @@
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9352,7 +9352,7 @@
         <v>95</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9367,7 +9367,7 @@
         <v>96</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9446,33 +9446,33 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="K2" s="197" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="K2" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
       <c r="P2" s="125"/>
       <c r="Q2" s="126"/>
-      <c r="T2" s="197" t="s">
+      <c r="T2" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="197"/>
-      <c r="V2" s="197"/>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="197"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
     </row>
     <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -9548,15 +9548,15 @@
       <c r="Z5" s="54"/>
     </row>
     <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
       <c r="K6" s="21">
         <v>2</v>
       </c>
@@ -9597,15 +9597,15 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="202" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
+      <c r="B7" s="205" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="205"/>
       <c r="K7" s="21">
         <v>3</v>
       </c>
@@ -9652,13 +9652,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="206"/>
       <c r="K8" s="21">
         <v>4</v>
       </c>
@@ -9758,15 +9758,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="201" t="s">
+      <c r="B10" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
       <c r="K10" s="21">
         <v>6</v>
       </c>
@@ -9812,15 +9812,15 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="198" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="198"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
+      <c r="B11" s="201" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
       <c r="K11" s="21">
         <v>7</v>
       </c>
@@ -9866,13 +9866,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="199"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
       <c r="K12" s="21">
         <v>8</v>
       </c>
@@ -9899,13 +9899,13 @@
       <c r="Z12" s="40"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="199"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
       <c r="K13" s="21">
         <v>9</v>
       </c>
@@ -9934,13 +9934,13 @@
       <c r="Z13" s="54"/>
     </row>
     <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
       <c r="K14" s="21">
         <v>10</v>
       </c>
@@ -10107,16 +10107,16 @@
       <c r="Z20" s="54"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="196"/>
-      <c r="D21" s="196" t="s">
+      <c r="C21" s="199"/>
+      <c r="D21" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
       <c r="H21" s="12" t="s">
         <v>26</v>
       </c>
@@ -10158,16 +10158,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="197" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
       <c r="H22" s="115">
         <v>1</v>
       </c>
@@ -10213,16 +10213,16 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="206" t="s">
+      <c r="B23" s="198" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="206"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="206"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
       <c r="H23" s="53">
         <v>2</v>
       </c>
@@ -10265,12 +10265,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="206"/>
-      <c r="C24" s="206"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="206"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
       <c r="H24" s="53"/>
       <c r="K24" s="21">
         <v>20</v>
@@ -10308,16 +10308,16 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="204" t="s">
+      <c r="B25" s="196" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
       <c r="H25" s="116">
         <v>4</v>
       </c>
@@ -11651,14 +11651,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -11668,6 +11660,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(D)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(D)-Repeated-Donohue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E868972-609B-4392-92C9-8316A79E1185}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF474855-50F8-4D62-BDD0-DA9F6E57680F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <definedName name="SPSS2" localSheetId="3">[3]Data!#REF!</definedName>
     <definedName name="SPSS2">[3]Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -448,19 +448,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
-  </si>
-  <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1189,6 +1189,18 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1214,18 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3252,7 +3252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D30C7694-843C-49B7-95C1-462D6992E497}" type="CELLRANGE">
+                    <a:fld id="{73C75A3E-29B1-419B-A427-2073D182A251}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3285,7 +3285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1A456C7-662A-419A-B4DE-291EAAE1B740}" type="CELLRANGE">
+                    <a:fld id="{82CF4FD5-03D0-45DD-9C66-1AA49CB80BC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3318,7 +3318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BA2708C-863C-43E4-94B7-2831A207695C}" type="CELLRANGE">
+                    <a:fld id="{81BB56E3-6048-4857-A9EF-C3F3492F3307}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3351,7 +3351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF37F305-F521-4F62-B4CB-8CB7381B2819}" type="CELLRANGE">
+                    <a:fld id="{1BD343C1-D420-457F-BE69-486569274487}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4055,7 +4055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD95609E-F60D-47D7-901D-28CC9E53EEAF}" type="CELLRANGE">
+                    <a:fld id="{33AAEAD3-9E9B-4380-873F-64F316CF5B6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4094,7 +4094,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{8ECB7C5E-737D-434C-A7C8-46147C1042CB}" type="CELLRANGE">
+                    <a:fld id="{2F62004A-7E7E-4F32-9F20-6664F0B1EAA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4137,7 +4137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{185DC3B1-7195-4520-9423-E728DDE1FF50}" type="CELLRANGE">
+                    <a:fld id="{DE5B794C-5302-485C-AE8F-44134B7BEAD7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4577,7 +4577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6B5A86F-86FB-40A6-AFE9-E007BECEAC69}" type="CELLRANGE">
+                    <a:fld id="{1FFBE45C-BEE9-4DA3-9C7A-D15ECA7EA731}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4610,7 +4610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{707EBC0A-F0C6-4115-9DA9-789865EF7931}" type="CELLRANGE">
+                    <a:fld id="{29710E60-3048-4F63-8151-DB7C5B8803B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4643,7 +4643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AFF27E0-DFCE-4531-83A6-578CA0626897}" type="CELLRANGE">
+                    <a:fld id="{C7B16E02-3F9F-4A4D-9481-C4B08E042BCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4676,7 +4676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48649695-7909-40FE-A42B-01A25BD04082}" type="CELLRANGE">
+                    <a:fld id="{5D0DE3C7-91FA-475C-8B4C-BEB743B07717}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4709,7 +4709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{855CE13F-106D-4071-B227-B515A62D9FD1}" type="CELLRANGE">
+                    <a:fld id="{B24DE8A8-76A9-4A25-8A9E-9006530F3281}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4742,7 +4742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9DC05FF-68CA-47E7-9DE9-70D75FA96757}" type="CELLRANGE">
+                    <a:fld id="{AAE15479-7312-42EC-B2BD-40C884BB226B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5423,7 +5423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BBC3A0C-8133-4ACE-871D-D8CB35FA06B5}" type="CELLRANGE">
+                    <a:fld id="{ACAED9C9-5B41-4763-B476-F8A02D1B5D57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5462,7 +5462,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{B50027A8-3C25-4815-9AED-35693BB19F0D}" type="CELLRANGE">
+                    <a:fld id="{9F2D8CD6-3E10-4462-9D41-AE7F6BB224E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5505,7 +5505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EA61091-3F35-4EE4-A862-74247D0E926E}" type="CELLRANGE">
+                    <a:fld id="{373EDBD5-8719-4B0A-A4D5-4DEBB6DACF74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8783,8 +8783,8 @@
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8832,7 +8832,7 @@
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
       <c r="K3" s="116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L3" s="116"/>
       <c r="M3" s="116"/>
@@ -8852,7 +8852,7 @@
       <c r="G4" s="116"/>
       <c r="H4" s="116"/>
       <c r="K4" s="117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L4" s="116"/>
       <c r="M4" s="116"/>
@@ -9025,7 +9025,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="111" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9070,7 +9070,7 @@
         <v>93</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9084,7 +9084,7 @@
         <v>94</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9098,7 +9098,7 @@
         <v>95</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9172,33 +9172,33 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="K2" s="119" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="88"/>
-      <c r="T2" s="119" t="s">
+      <c r="T2" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -9256,15 +9256,15 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
       <c r="K6" s="18">
         <v>2</v>
       </c>
@@ -9304,15 +9304,15 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
       <c r="K7" s="18">
         <v>3</v>
       </c>
@@ -9358,13 +9358,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
       <c r="K8" s="18">
         <v>4</v>
       </c>
@@ -9462,15 +9462,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
       <c r="K10" s="18">
         <v>6</v>
       </c>
@@ -9516,15 +9516,15 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
       <c r="K11" s="18">
         <v>7</v>
       </c>
@@ -9569,13 +9569,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
       <c r="K12" s="18">
         <v>8</v>
       </c>
@@ -9601,13 +9601,13 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
       <c r="K13" s="18">
         <v>9</v>
       </c>
@@ -9629,13 +9629,13 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="K14" s="18">
         <v>10</v>
       </c>
@@ -9781,16 +9781,16 @@
       </c>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118" t="s">
+      <c r="C21" s="121"/>
+      <c r="D21" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
       <c r="H21" s="10" t="s">
         <v>26</v>
       </c>
@@ -9831,16 +9831,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127" t="s">
+      <c r="C22" s="119"/>
+      <c r="D22" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="82">
         <v>1</v>
       </c>
@@ -9885,16 +9885,16 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128" t="s">
+      <c r="C23" s="120"/>
+      <c r="D23" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="41">
         <v>2</v>
       </c>
@@ -9936,12 +9936,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="41"/>
       <c r="K24" s="18">
         <v>20</v>
@@ -9978,16 +9978,16 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126" t="s">
+      <c r="C25" s="118"/>
+      <c r="D25" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
       <c r="H25" s="83">
         <v>4</v>
       </c>
@@ -11304,14 +11304,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -11321,6 +11313,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11350,33 +11350,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="K2" s="119" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="T2" s="119" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -13187,24 +13187,24 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="K2" s="119" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -14965,34 +14965,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
       <c r="I2"/>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="T2" s="119" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(D)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(D)-Repeated-Donohue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF474855-50F8-4D62-BDD0-DA9F6E57680F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{253648E0-B1BD-46D9-880E-451506AF9680}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -1189,18 +1189,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1226,6 +1214,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3252,7 +3252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73C75A3E-29B1-419B-A427-2073D182A251}" type="CELLRANGE">
+                    <a:fld id="{BDD80FBC-E275-4FC2-9613-FD8EDFF5CDFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3285,7 +3285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82CF4FD5-03D0-45DD-9C66-1AA49CB80BC4}" type="CELLRANGE">
+                    <a:fld id="{F8034FCF-0A85-405F-BA3A-550919BCA095}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3318,7 +3318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81BB56E3-6048-4857-A9EF-C3F3492F3307}" type="CELLRANGE">
+                    <a:fld id="{F965FD5D-D7B7-4D9E-8D58-51D24DD7FF96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3351,7 +3351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BD343C1-D420-457F-BE69-486569274487}" type="CELLRANGE">
+                    <a:fld id="{C9DD15E3-F17C-409A-BB2C-64286842FE78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4055,7 +4055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33AAEAD3-9E9B-4380-873F-64F316CF5B6F}" type="CELLRANGE">
+                    <a:fld id="{795DC557-0DE4-444E-A194-BFCB97B6722E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4094,7 +4094,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{2F62004A-7E7E-4F32-9F20-6664F0B1EAA9}" type="CELLRANGE">
+                    <a:fld id="{75F425C3-A810-447A-9D76-470D7B56102F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4137,7 +4137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE5B794C-5302-485C-AE8F-44134B7BEAD7}" type="CELLRANGE">
+                    <a:fld id="{2C619DB8-09CB-44A1-A16B-A0E20B76C432}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4577,7 +4577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FFBE45C-BEE9-4DA3-9C7A-D15ECA7EA731}" type="CELLRANGE">
+                    <a:fld id="{7559B0E9-40FB-4769-BB0E-0E7081E9B66E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4610,7 +4610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29710E60-3048-4F63-8151-DB7C5B8803B2}" type="CELLRANGE">
+                    <a:fld id="{4EEA193F-C4BD-4703-A92A-DA77C870BA28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4643,7 +4643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7B16E02-3F9F-4A4D-9481-C4B08E042BCA}" type="CELLRANGE">
+                    <a:fld id="{4EFFBED4-B2FF-42C2-856F-26DAEE00FBB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4676,7 +4676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D0DE3C7-91FA-475C-8B4C-BEB743B07717}" type="CELLRANGE">
+                    <a:fld id="{900C90E4-0810-46E7-9BA2-F13B21F672D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4709,7 +4709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B24DE8A8-76A9-4A25-8A9E-9006530F3281}" type="CELLRANGE">
+                    <a:fld id="{C209E726-2708-42E3-A626-0654B3AE4F7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4742,7 +4742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAE15479-7312-42EC-B2BD-40C884BB226B}" type="CELLRANGE">
+                    <a:fld id="{9E1D1394-47BC-46D9-BE24-A76DE56201E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5423,7 +5423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACAED9C9-5B41-4763-B476-F8A02D1B5D57}" type="CELLRANGE">
+                    <a:fld id="{D10A3F05-109F-4CB5-8EDB-5C3A41C90DBE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5462,7 +5462,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{9F2D8CD6-3E10-4462-9D41-AE7F6BB224E2}" type="CELLRANGE">
+                    <a:fld id="{C0D7B7E4-395A-4BB6-83F9-9FE3F0AD4DE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5505,7 +5505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{373EDBD5-8719-4B0A-A4D5-4DEBB6DACF74}" type="CELLRANGE">
+                    <a:fld id="{B2D5D8CE-703F-44C5-BD3C-85DFDE7804B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8458,9 +8458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8498,9 +8498,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8533,26 +8533,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8585,26 +8568,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8783,7 +8749,7 @@
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -9119,7 +9085,7 @@
       <c r="K34" s="111"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -9172,33 +9138,33 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="K2" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="88"/>
-      <c r="T2" s="122" t="s">
+      <c r="T2" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
     </row>
     <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -9256,15 +9222,15 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
       <c r="K6" s="18">
         <v>2</v>
       </c>
@@ -9304,15 +9270,15 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
       <c r="K7" s="18">
         <v>3</v>
       </c>
@@ -9358,13 +9324,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
       <c r="K8" s="18">
         <v>4</v>
       </c>
@@ -9462,15 +9428,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
       <c r="K10" s="18">
         <v>6</v>
       </c>
@@ -9516,15 +9482,15 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
       <c r="K11" s="18">
         <v>7</v>
       </c>
@@ -9569,13 +9535,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
       <c r="K12" s="18">
         <v>8</v>
       </c>
@@ -9601,13 +9567,13 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
       <c r="K13" s="18">
         <v>9</v>
       </c>
@@ -9629,13 +9595,13 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
       <c r="K14" s="18">
         <v>10</v>
       </c>
@@ -9781,16 +9747,16 @@
       </c>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121" t="s">
+      <c r="C21" s="118"/>
+      <c r="D21" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="10" t="s">
         <v>26</v>
       </c>
@@ -9831,16 +9797,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119" t="s">
+      <c r="C22" s="127"/>
+      <c r="D22" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="82">
         <v>1</v>
       </c>
@@ -9885,16 +9851,16 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120" t="s">
+      <c r="C23" s="128"/>
+      <c r="D23" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="41">
         <v>2</v>
       </c>
@@ -9936,12 +9902,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="41"/>
       <c r="K24" s="18">
         <v>20</v>
@@ -9978,16 +9944,16 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118" t="s">
+      <c r="C25" s="126"/>
+      <c r="D25" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
       <c r="H25" s="83">
         <v>4</v>
       </c>
@@ -11304,6 +11270,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -11313,14 +11287,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11350,33 +11316,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="K2" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="T2" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -13187,24 +13153,24 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="K2" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -14965,34 +14931,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2"/>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="T2" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(D)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(D)-Repeated-Donohue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{253648E0-B1BD-46D9-880E-451506AF9680}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4421D57F-221C-4681-86A1-4DCA4EFD2D3E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,19 +448,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/EASE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
-  </si>
-  <si>
-    <t>Version: 2.210601</t>
   </si>
   <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/EASE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -3252,7 +3252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDD80FBC-E275-4FC2-9613-FD8EDFF5CDFB}" type="CELLRANGE">
+                    <a:fld id="{D3AC9F86-44AF-4D01-86C6-5BF8F24021D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3285,7 +3285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8034FCF-0A85-405F-BA3A-550919BCA095}" type="CELLRANGE">
+                    <a:fld id="{70BCF605-B88F-4384-82E6-5CFADBEDC696}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3318,7 +3318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F965FD5D-D7B7-4D9E-8D58-51D24DD7FF96}" type="CELLRANGE">
+                    <a:fld id="{1760C345-3026-4E0F-B50F-4685A6475177}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3351,7 +3351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9DD15E3-F17C-409A-BB2C-64286842FE78}" type="CELLRANGE">
+                    <a:fld id="{B405FAC8-3F7C-46D1-8722-88460A557FEC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4055,7 +4055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{795DC557-0DE4-444E-A194-BFCB97B6722E}" type="CELLRANGE">
+                    <a:fld id="{5B19B81B-EA57-462A-B782-D52BCC1DFA2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4094,7 +4094,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{75F425C3-A810-447A-9D76-470D7B56102F}" type="CELLRANGE">
+                    <a:fld id="{5EB5A959-40AA-41D5-86BB-E69E2D4C7941}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4137,7 +4137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C619DB8-09CB-44A1-A16B-A0E20B76C432}" type="CELLRANGE">
+                    <a:fld id="{83185DA6-4BE1-4255-8623-2F2F74A14656}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4577,7 +4577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7559B0E9-40FB-4769-BB0E-0E7081E9B66E}" type="CELLRANGE">
+                    <a:fld id="{8FD0114A-3092-467B-A7F9-D03C6598443C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4610,7 +4610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EEA193F-C4BD-4703-A92A-DA77C870BA28}" type="CELLRANGE">
+                    <a:fld id="{8B2BFBAF-290E-430B-A835-7D1674E085A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4643,7 +4643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EFFBED4-B2FF-42C2-856F-26DAEE00FBB2}" type="CELLRANGE">
+                    <a:fld id="{8D3AD86C-6E7A-44E0-8F9B-98EED1FD720B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4676,7 +4676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{900C90E4-0810-46E7-9BA2-F13B21F672D0}" type="CELLRANGE">
+                    <a:fld id="{61E52D07-D899-4653-9FEC-B5E42C99F476}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4709,7 +4709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C209E726-2708-42E3-A626-0654B3AE4F7B}" type="CELLRANGE">
+                    <a:fld id="{FE5CE982-FF55-4AC0-9D76-C6176535ED13}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4742,7 +4742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E1D1394-47BC-46D9-BE24-A76DE56201E4}" type="CELLRANGE">
+                    <a:fld id="{13BFC5A2-36C8-425C-890C-189C1FBCF184}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5423,7 +5423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D10A3F05-109F-4CB5-8EDB-5C3A41C90DBE}" type="CELLRANGE">
+                    <a:fld id="{F88B6A18-2148-4244-84BF-75A1265A8EA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5462,7 +5462,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{C0D7B7E4-395A-4BB6-83F9-9FE3F0AD4DE8}" type="CELLRANGE">
+                    <a:fld id="{F92EF944-075D-4DCD-A882-65D0D000C798}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5505,7 +5505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2D5D8CE-703F-44C5-BD3C-85DFDE7804B2}" type="CELLRANGE">
+                    <a:fld id="{21D0724E-A124-42EA-A2E9-4B14D077CC6A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8457,6 +8457,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8750,7 +8754,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8798,7 +8802,7 @@
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
       <c r="K3" s="116" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L3" s="116"/>
       <c r="M3" s="116"/>
@@ -8818,7 +8822,7 @@
       <c r="G4" s="116"/>
       <c r="H4" s="116"/>
       <c r="K4" s="117" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L4" s="116"/>
       <c r="M4" s="116"/>
@@ -8991,7 +8995,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9036,7 +9040,7 @@
         <v>93</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9050,7 +9054,7 @@
         <v>94</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9064,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9095,9 +9099,9 @@
     <mergeCell ref="K4:Q4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K26" r:id="rId2" xr:uid="{657F03B9-2320-403F-A164-1B07784FB4D6}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{75EBE3AA-E4AE-4C8B-AB99-8E519AA6D7EA}"/>
+    <hyperlink ref="K26" r:id="rId1" xr:uid="{657F03B9-2320-403F-A164-1B07784FB4D6}"/>
+    <hyperlink ref="K25" r:id="rId2" xr:uid="{75EBE3AA-E4AE-4C8B-AB99-8E519AA6D7EA}"/>
+    <hyperlink ref="K4" r:id="rId3" display="https://cwendorf.github.io/BASE/EASE" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/EASE/EASE(D)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(D)-Repeated-Donohue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4421D57F-221C-4681-86A1-4DCA4EFD2D3E}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{AB3BBBDC-6721-411F-B235-F970690E0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{837D7260-D343-40CA-BCDC-1087F9085164}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3252,7 +3252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3AC9F86-44AF-4D01-86C6-5BF8F24021D4}" type="CELLRANGE">
+                    <a:fld id="{A4CA8A7D-FFAE-4866-BB13-E33EE6EFE00B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3285,7 +3285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70BCF605-B88F-4384-82E6-5CFADBEDC696}" type="CELLRANGE">
+                    <a:fld id="{E97FE75B-2F4B-442E-8D11-E32EF9571E27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3318,7 +3318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1760C345-3026-4E0F-B50F-4685A6475177}" type="CELLRANGE">
+                    <a:fld id="{AACE4611-F957-4E16-A35E-757DF01184B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3351,7 +3351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B405FAC8-3F7C-46D1-8722-88460A557FEC}" type="CELLRANGE">
+                    <a:fld id="{07E9BA14-E3B0-49BE-A68A-2E047EB1A141}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4055,7 +4055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B19B81B-EA57-462A-B782-D52BCC1DFA2C}" type="CELLRANGE">
+                    <a:fld id="{887B2580-834A-4BBC-9D38-F3761A506424}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4094,7 +4094,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{5EB5A959-40AA-41D5-86BB-E69E2D4C7941}" type="CELLRANGE">
+                    <a:fld id="{09607217-5C81-4852-B835-5538D31024A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4137,7 +4137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83185DA6-4BE1-4255-8623-2F2F74A14656}" type="CELLRANGE">
+                    <a:fld id="{8B8E0CB9-A366-4F2D-A440-101837F67A3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4577,7 +4577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FD0114A-3092-467B-A7F9-D03C6598443C}" type="CELLRANGE">
+                    <a:fld id="{12D777A1-8817-43F9-9B8E-7A454BCAAD41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4610,7 +4610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B2BFBAF-290E-430B-A835-7D1674E085A6}" type="CELLRANGE">
+                    <a:fld id="{540E6178-A4E7-4F17-B2C9-D7750407BBC3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4643,7 +4643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D3AD86C-6E7A-44E0-8F9B-98EED1FD720B}" type="CELLRANGE">
+                    <a:fld id="{6D420BC5-83B7-4EE1-A942-E40DA1F449CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4676,7 +4676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61E52D07-D899-4653-9FEC-B5E42C99F476}" type="CELLRANGE">
+                    <a:fld id="{F9C8010D-A166-4444-8777-D4BF31F89C7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4709,7 +4709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE5CE982-FF55-4AC0-9D76-C6176535ED13}" type="CELLRANGE">
+                    <a:fld id="{2139BB03-71A0-4873-A20C-7C6BE91FC336}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4742,7 +4742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13BFC5A2-36C8-425C-890C-189C1FBCF184}" type="CELLRANGE">
+                    <a:fld id="{5F202ED0-0BDD-4AC0-A3C9-C1AE8C8B311E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5423,7 +5423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F88B6A18-2148-4244-84BF-75A1265A8EA8}" type="CELLRANGE">
+                    <a:fld id="{53AA3CA8-D0F5-40AD-84D8-A46EFFDFCB1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5462,7 +5462,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{F92EF944-075D-4DCD-A882-65D0D000C798}" type="CELLRANGE">
+                    <a:fld id="{69B4F042-FC9C-4CCA-9D81-94288322630F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5505,7 +5505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21D0724E-A124-42EA-A2E9-4B14D077CC6A}" type="CELLRANGE">
+                    <a:fld id="{7FAD0785-F1BE-48DF-884F-06A362B1549E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8457,10 +8457,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
